--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\FINAL 450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B2B29-68B0-4DB0-9BE3-D395F9A250F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F86D1-BEF9-4EAE-A38B-557ED5751CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="348" yWindow="468" windowWidth="22812" windowHeight="12120" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1984,6 +1984,9 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1992,6 +1995,9 @@
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -2000,6 +2006,9 @@
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -2008,6 +2017,9 @@
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2015,6 +2027,9 @@
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F86D1-BEF9-4EAE-A38B-557ED5751CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7880480-338F-4314-9CFB-D523E9C099E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="468" windowWidth="22812" windowHeight="12120" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2039,6 +2039,9 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2047,6 +2050,9 @@
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -2055,6 +2061,9 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -2063,16 +2072,22 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7880480-338F-4314-9CFB-D523E9C099E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09146B4A-27AF-49D7-A867-C7B7EA053ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2094,6 +2094,9 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -2102,6 +2105,9 @@
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C19" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -2110,6 +2116,9 @@
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -2118,6 +2127,9 @@
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C21" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -2125,6 +2137,9 @@
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09146B4A-27AF-49D7-A867-C7B7EA053ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD81A7-3410-4614-8858-69963DDD6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -96,12 +96,6 @@
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
     <t>Maximum profit by buying and selling a share atmost twice</t>
   </si>
   <si>
@@ -1405,6 +1399,12 @@
   </si>
   <si>
     <t>Find the Kth smallest element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest consecutive subsequence </t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, find all elements that appear more than n/k times</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1910,13 +1910,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
@@ -2149,6 +2149,9 @@
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C23" s="8">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -2157,6 +2160,9 @@
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C24" s="8">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
@@ -2165,13 +2171,19 @@
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C25" s="8">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
+      </c>
+      <c r="C26" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2179,7 +2191,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>459</v>
+      </c>
+      <c r="C27" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2187,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2195,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2203,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2211,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2219,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2227,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2235,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2243,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2251,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2259,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2267,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2276,82 +2291,82 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2360,338 +2375,338 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2700,290 +2715,290 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2992,290 +3007,290 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -3284,282 +3299,282 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3567,178 +3582,178 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3746,282 +3761,282 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4029,154 +4044,154 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4184,306 +4199,306 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="321" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4491,146 +4506,146 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4638,338 +4653,338 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4977,50 +4992,50 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5028,482 +5043,482 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="451" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5511,82 +5526,82 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5614,8 +5629,8 @@
     <hyperlink ref="B23" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
     <hyperlink ref="B24" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
     <hyperlink ref="B25" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B27" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B26" r:id="rId24" display="Find longest coinsecutive subsequence" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B27" r:id="rId25" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times." xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
     <hyperlink ref="B28" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
     <hyperlink ref="B29" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD81A7-3410-4614-8858-69963DDD6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CCC69-2856-4635-8042-8E0FA3A285A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2204,6 +2204,9 @@
       <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C28" s="8">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -2212,6 +2215,9 @@
       <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C29" s="8">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
@@ -2220,6 +2226,9 @@
       <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C30" s="8">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
@@ -2228,6 +2237,9 @@
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C31" s="8">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
@@ -2235,6 +2247,9 @@
       </c>
       <c r="B32" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C32" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CCC69-2856-4635-8042-8E0FA3A285A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF6192C-A784-4BE4-8F9A-F9E222E8512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2252,47 +2252,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2300,11 +2315,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF6192C-A784-4BE4-8F9A-F9E222E8512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE0927-3EA7-4A1B-8DEF-AB384B255D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Spiral traversal on a Matrix</t>
   </si>
   <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
     <t>Find median in a row wise sorted matrix</t>
   </si>
   <si>
@@ -1405,6 +1402,9 @@
   </si>
   <si>
     <t>Given an array of size n and a number k, find all elements that appear more than n/k times</t>
+  </si>
+  <si>
+    <t>Search an element in a matrix</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1910,13 +1910,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C26" s="8">
         <v>24</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C27" s="8">
         <v>25</v>
@@ -2313,6 +2313,9 @@
       </c>
       <c r="B38" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="C38" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2327,13 +2330,19 @@
       <c r="B40" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C40" s="8">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>36</v>
+        <v>459</v>
+      </c>
+      <c r="C41" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2341,7 +2350,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C42" s="8">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2349,7 +2361,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C43" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2357,7 +2372,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2365,7 +2380,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2373,7 +2388,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2381,7 +2396,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2389,7 +2404,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2397,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,338 +2421,338 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2746,290 +2761,290 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -3038,290 +3053,290 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -3330,282 +3345,282 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3613,178 +3628,178 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3792,282 +3807,282 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4075,154 +4090,154 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4230,306 +4245,306 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="321" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4537,146 +4552,146 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="340" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4684,338 +4699,338 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B341" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="383" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5023,50 +5038,50 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B384" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5074,482 +5089,482 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="451" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5557,82 +5572,82 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B452" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE0927-3EA7-4A1B-8DEF-AB384B255D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8EDB8-689A-4926-B02E-217E87FC576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2374,6 +2374,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C44" s="8">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
@@ -2382,6 +2385,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C45" s="8">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
@@ -2390,6 +2396,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C46" s="8">
+        <v>43</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
@@ -2398,6 +2407,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="C47" s="8">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
@@ -2405,6 +2417,9 @@
       </c>
       <c r="B48" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="C48" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8EDB8-689A-4926-B02E-217E87FC576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA043BC-A15B-4088-AFF3-A1124EC754AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1553,7 +1553,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1575,6 +1575,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1897,7 +1900,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2422,51 +2425,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
@@ -2490,7 +2509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
@@ -2498,7 +2517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
@@ -2530,7 +2549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
@@ -2538,7 +2557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>44</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA043BC-A15B-4088-AFF3-A1124EC754AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3736F2-24BE-449A-916C-A6F4A1FDF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2492,6 +2492,9 @@
       <c r="B55" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C55" s="8">
+        <v>51</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
@@ -2500,6 +2503,9 @@
       <c r="B56" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C56" s="8">
+        <v>52</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
@@ -2508,6 +2514,9 @@
       <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C57" s="8">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
@@ -2516,6 +2525,9 @@
       <c r="B58" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C58" s="8">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
@@ -2523,6 +2535,9 @@
       </c>
       <c r="B59" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="C59" s="8">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3736F2-24BE-449A-916C-A6F4A1FDF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF084D-37EB-44E7-A285-F2105C74D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2547,6 +2547,9 @@
       <c r="B60" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="C60" s="8">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
@@ -2555,6 +2558,9 @@
       <c r="B61" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C61" s="8">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
@@ -2563,6 +2569,9 @@
       <c r="B62" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C62" s="8">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
@@ -2571,6 +2580,9 @@
       <c r="B63" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C63" s="8">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
@@ -2578,6 +2590,9 @@
       </c>
       <c r="B64" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="C64" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF084D-37EB-44E7-A285-F2105C74D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D085F6E-55BD-42E4-B78A-8786E57B9B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2595,47 +2595,62 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
@@ -2643,7 +2658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>44</v>
       </c>
@@ -2651,7 +2666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
@@ -2683,7 +2698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D085F6E-55BD-42E4-B78A-8786E57B9B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF8C21-D53E-442C-8378-DCED2212EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1897,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C461"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2657,6 +2657,9 @@
       <c r="B70" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="C70" s="8">
+        <v>66</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
@@ -2665,6 +2668,9 @@
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C71" s="8">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
@@ -2673,6 +2679,9 @@
       <c r="B72" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="C72" s="8">
+        <v>68</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
@@ -2681,6 +2690,9 @@
       <c r="B73" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C73" s="8">
+        <v>69</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
@@ -2689,6 +2701,9 @@
       <c r="B74" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C74" s="8">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
@@ -2738,7 +2753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
@@ -2746,7 +2761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
@@ -2754,7 +2769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
@@ -2770,7 +2785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
@@ -2786,7 +2801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
@@ -2794,7 +2809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
@@ -2810,7 +2825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
@@ -2818,7 +2833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>44</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
@@ -2834,11 +2849,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
@@ -2846,7 +2862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>87</v>
       </c>
@@ -2854,7 +2870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -3118,7 +3134,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>87</v>
       </c>
@@ -3126,11 +3142,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>124</v>
       </c>
@@ -3138,7 +3155,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>124</v>
       </c>
@@ -3146,7 +3163,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>124</v>
       </c>
@@ -3154,7 +3171,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>124</v>
       </c>
@@ -3162,7 +3179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>124</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>124</v>
       </c>
@@ -3178,7 +3195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>124</v>
       </c>
@@ -3186,7 +3203,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>124</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>124</v>
       </c>
@@ -3202,7 +3219,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>124</v>
       </c>
@@ -3210,7 +3227,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>124</v>
       </c>
@@ -3218,7 +3235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>124</v>
       </c>
@@ -3226,7 +3243,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>124</v>
       </c>
@@ -3234,7 +3251,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>124</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>124</v>
       </c>
@@ -3378,7 +3395,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>124</v>
       </c>
@@ -3386,7 +3403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>124</v>
       </c>
@@ -3394,7 +3411,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>124</v>
       </c>
@@ -3402,7 +3419,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>124</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>124</v>
       </c>
@@ -3418,11 +3435,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>161</v>
       </c>
@@ -3430,7 +3448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>161</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>161</v>
       </c>
@@ -3446,7 +3464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>161</v>
       </c>
@@ -3454,7 +3472,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>161</v>
       </c>
@@ -3462,7 +3480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>161</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>161</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>161</v>
       </c>
@@ -3486,7 +3504,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>161</v>
       </c>
@@ -3703,7 +3721,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C203" s="9"/>
+      <c r="C203"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
@@ -3882,7 +3900,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C226" s="9"/>
+      <c r="C226"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
@@ -4165,7 +4183,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C262" s="9"/>
+      <c r="C262"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
@@ -4320,7 +4338,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C282" s="9"/>
+      <c r="C282"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
@@ -4627,7 +4645,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C321" s="9"/>
+      <c r="C321"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
@@ -4774,7 +4792,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C340" s="9"/>
+      <c r="C340"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
@@ -5113,7 +5131,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C383" s="9"/>
+      <c r="C383"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
@@ -5164,7 +5182,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C390" s="9"/>
+      <c r="C390"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
@@ -5647,7 +5665,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C451" s="9"/>
+      <c r="C451"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
@@ -5728,6 +5746,12 @@
       <c r="B461" s="4" t="s">
         <v>450</v>
       </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C462"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C463"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF8C21-D53E-442C-8378-DCED2212EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A904B-C43E-42BC-8E36-02AFF223C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2712,6 +2712,9 @@
       <c r="B75" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C75" s="8">
+        <v>71</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
@@ -2720,6 +2723,9 @@
       <c r="B76" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C76" s="8">
+        <v>72</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
@@ -2728,6 +2734,9 @@
       <c r="B77" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C77" s="8">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
@@ -2736,6 +2745,9 @@
       <c r="B78" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C78" s="8">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
@@ -2743,6 +2755,9 @@
       </c>
       <c r="B79" s="4" t="s">
         <v>74</v>
+      </c>
+      <c r="C79" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A904B-C43E-42BC-8E36-02AFF223C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD129E2A-5C76-47B1-A16E-A845E60CADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2767,6 +2767,9 @@
       <c r="B80" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="C80" s="8">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
@@ -2775,6 +2778,9 @@
       <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C81" s="8">
+        <v>77</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
@@ -2783,6 +2789,9 @@
       <c r="B82" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C82" s="8">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
@@ -2791,6 +2800,9 @@
       <c r="B83" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="C83" s="8">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
@@ -2798,6 +2810,9 @@
       </c>
       <c r="B84" s="4" t="s">
         <v>78</v>
+      </c>
+      <c r="C84" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD129E2A-5C76-47B1-A16E-A845E60CADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EC869-BA91-4240-9404-11DB10FD6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2822,6 +2822,9 @@
       <c r="B85" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C85" s="8">
+        <v>81</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
@@ -2830,6 +2833,9 @@
       <c r="B86" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="C86" s="8">
+        <v>82</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
@@ -2838,6 +2844,9 @@
       <c r="B87" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="C87" s="8">
+        <v>83</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
@@ -2846,6 +2855,9 @@
       <c r="B88" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="C88" s="8">
+        <v>84</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
@@ -2853,6 +2865,9 @@
       </c>
       <c r="B89" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="C89" s="8">
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EC869-BA91-4240-9404-11DB10FD6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C84D3-D313-4E91-A77A-68F59BD9303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2877,6 +2877,9 @@
       <c r="B90" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C90" s="8">
+        <v>86</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
@@ -2885,6 +2888,9 @@
       <c r="B91" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C91" s="8">
+        <v>87</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
@@ -2892,6 +2898,9 @@
       </c>
       <c r="B92" s="4" t="s">
         <v>86</v>
+      </c>
+      <c r="C92" s="8">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -2906,6 +2915,9 @@
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C94" s="8">
+        <v>89</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
@@ -2913,6 +2925,9 @@
       </c>
       <c r="B95" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="C95" s="8">
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C84D3-D313-4E91-A77A-68F59BD9303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154580D-0C02-40D1-BEE9-B3A525427B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2937,40 +2937,55 @@
       <c r="B96" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>87</v>
       </c>
@@ -2978,7 +2993,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>87</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>87</v>
       </c>
@@ -2994,7 +3009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>87</v>
       </c>
@@ -3002,7 +3017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>87</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>87</v>
       </c>
@@ -3034,7 +3049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>87</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>87</v>
       </c>
@@ -3050,7 +3065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>87</v>
       </c>
@@ -3058,7 +3073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>87</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154580D-0C02-40D1-BEE9-B3A525427B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA81500-2E84-44CE-99BF-7B97838FC703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2992,6 +2992,9 @@
       <c r="B101" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="C101" s="8">
+        <v>96</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
@@ -3000,6 +3003,9 @@
       <c r="B102" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C102" s="8">
+        <v>97</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
@@ -3008,6 +3014,9 @@
       <c r="B103" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C103" s="8">
+        <v>98</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
@@ -3016,6 +3025,9 @@
       <c r="B104" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C104" s="8">
+        <v>99</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
@@ -3023,6 +3035,9 @@
       </c>
       <c r="B105" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="C105" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA81500-2E84-44CE-99BF-7B97838FC703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD43BB-9558-4385-8A7B-19F763DD8846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -3047,6 +3047,9 @@
       <c r="B106" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C106" s="8">
+        <v>101</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
@@ -3055,6 +3058,9 @@
       <c r="B107" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C107" s="8">
+        <v>102</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
@@ -3063,6 +3069,9 @@
       <c r="B108" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C108" s="8">
+        <v>103</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
@@ -3071,6 +3080,9 @@
       <c r="B109" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C109" s="8">
+        <v>104</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
@@ -3078,6 +3090,9 @@
       </c>
       <c r="B110" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="C110" s="8">
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD43BB-9558-4385-8A7B-19F763DD8846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFA11E-A993-4AF1-A891-5EB6BE515B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -3102,6 +3102,9 @@
       <c r="B111" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C111" s="8">
+        <v>106</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
@@ -3110,32 +3113,44 @@
       <c r="B112" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>87</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>87</v>
       </c>
@@ -3151,7 +3166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>87</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>87</v>
       </c>
@@ -3167,7 +3182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>87</v>
       </c>
@@ -3175,7 +3190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>87</v>
       </c>
@@ -3183,7 +3198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>87</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>87</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>87</v>
       </c>
@@ -3207,7 +3222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>87</v>
       </c>
@@ -3215,7 +3230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>87</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>87</v>
       </c>
@@ -3231,7 +3246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>87</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFA11E-A993-4AF1-A891-5EB6BE515B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848EA40-17FC-4ACE-B510-3AABC18C9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3157,6 +3157,9 @@
       <c r="B116" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="C116" s="8">
+        <v>111</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
@@ -3165,6 +3168,9 @@
       <c r="B117" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C117" s="8">
+        <v>112</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
@@ -3173,6 +3179,9 @@
       <c r="B118" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="C118" s="8">
+        <v>113</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
@@ -3181,6 +3190,9 @@
       <c r="B119" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C119" s="8">
+        <v>114</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
@@ -3188,6 +3200,9 @@
       </c>
       <c r="B120" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="C120" s="8">
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848EA40-17FC-4ACE-B510-3AABC18C9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DBD15-F07A-4B08-A9E9-AE175FFF7763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3212,6 +3212,9 @@
       <c r="B121" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C121" s="8">
+        <v>116</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
@@ -3220,6 +3223,9 @@
       <c r="B122" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C122" s="8">
+        <v>117</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
@@ -3228,6 +3234,9 @@
       <c r="B123" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="C123" s="8">
+        <v>118</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
@@ -3236,6 +3245,9 @@
       <c r="B124" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="C124" s="8">
+        <v>119</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
@@ -3243,6 +3255,9 @@
       </c>
       <c r="B125" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="C125" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DBD15-F07A-4B08-A9E9-AE175FFF7763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB81E0-8A34-4393-920F-BA0B523D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3267,6 +3267,9 @@
       <c r="B126" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C126" s="8">
+        <v>121</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
@@ -3275,6 +3278,9 @@
       <c r="B127" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C127" s="8">
+        <v>122</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
@@ -3283,6 +3289,9 @@
       <c r="B128" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C128" s="8">
+        <v>123</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
@@ -3290,6 +3299,9 @@
       </c>
       <c r="B129" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="C129" s="8">
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -3302,6 +3314,9 @@
         <v>124</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="8">
         <v>125</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB81E0-8A34-4393-920F-BA0B523D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C31410-6492-4220-A5ED-00B84D036EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3327,6 +3327,9 @@
       <c r="B132" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="C132" s="8">
+        <v>126</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
@@ -3335,6 +3338,9 @@
       <c r="B133" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="C133" s="8">
+        <v>127</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
@@ -3343,6 +3349,9 @@
       <c r="B134" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C134" s="8">
+        <v>128</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
@@ -3351,12 +3360,18 @@
       <c r="B135" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C135" s="8">
+        <v>129</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="8">
         <v>130</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C31410-6492-4220-A5ED-00B84D036EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C0F48-8518-4021-9277-DE87C6C25F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3382,6 +3382,9 @@
       <c r="B137" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C137" s="8">
+        <v>131</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
@@ -3390,6 +3393,9 @@
       <c r="B138" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="C138" s="8">
+        <v>132</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
@@ -3398,6 +3404,9 @@
       <c r="B139" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="C139" s="8">
+        <v>133</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
@@ -3406,12 +3415,18 @@
       <c r="B140" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C140" s="8">
+        <v>134</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" s="8">
         <v>135</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C0F48-8518-4021-9277-DE87C6C25F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68CC76-2D74-4147-9FA7-FFB1B9A8CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3437,6 +3437,9 @@
       <c r="B142" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="C142" s="8">
+        <v>136</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
@@ -3445,6 +3448,9 @@
       <c r="B143" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="C143" s="8">
+        <v>137</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
@@ -3453,24 +3459,33 @@
       <c r="B144" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>124</v>
       </c>
@@ -3478,7 +3493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>124</v>
       </c>
@@ -3486,7 +3501,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>124</v>
       </c>
@@ -3494,7 +3509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>124</v>
       </c>
@@ -3502,7 +3517,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>124</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>124</v>
       </c>
@@ -3518,7 +3533,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>124</v>
       </c>
@@ -3526,7 +3541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>124</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>124</v>
       </c>
@@ -3542,7 +3557,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>124</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>124</v>
       </c>
@@ -3558,7 +3573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>124</v>
       </c>
@@ -3566,7 +3581,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>124</v>
       </c>
@@ -3574,7 +3589,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>124</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68CC76-2D74-4147-9FA7-FFB1B9A8CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B984263-AC6A-4F45-AB5E-D819A4103F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3492,6 +3492,9 @@
       <c r="B147" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="C147" s="8">
+        <v>141</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
@@ -3500,6 +3503,9 @@
       <c r="B148" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="C148" s="8">
+        <v>142</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
@@ -3508,6 +3514,9 @@
       <c r="B149" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="C149" s="8">
+        <v>143</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
@@ -3516,12 +3525,18 @@
       <c r="B150" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="C150" s="8">
+        <v>144</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="8">
         <v>145</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B984263-AC6A-4F45-AB5E-D819A4103F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B326DF-4DD8-4750-A70A-4DEF4F276DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3547,6 +3547,9 @@
       <c r="B152" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="C152" s="8">
+        <v>146</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
@@ -3555,6 +3558,9 @@
       <c r="B153" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="C153" s="8">
+        <v>147</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
@@ -3563,6 +3569,9 @@
       <c r="B154" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="C154" s="8">
+        <v>148</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
@@ -3571,12 +3580,18 @@
       <c r="B155" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C155" s="8">
+        <v>149</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="8">
         <v>150</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B326DF-4DD8-4750-A70A-4DEF4F276DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A59D-D4B3-418C-B905-45D990BD20EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3602,6 +3602,9 @@
       <c r="B157" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="C157" s="8">
+        <v>151</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
@@ -3610,6 +3613,9 @@
       <c r="B158" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="C158" s="8">
+        <v>152</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
@@ -3618,6 +3624,9 @@
       <c r="B159" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="C159" s="8">
+        <v>153</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
@@ -3626,12 +3635,18 @@
       <c r="B160" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="C160" s="8">
+        <v>154</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="8">
         <v>155</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A59D-D4B3-418C-B905-45D990BD20EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0C0C3-ADF8-4DF5-9C14-9E33A610187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3657,6 +3657,9 @@
       <c r="B162" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C162" s="8">
+        <v>156</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
@@ -3665,6 +3668,9 @@
       <c r="B163" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="C163" s="8">
+        <v>157</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
@@ -3673,6 +3679,9 @@
       <c r="B164" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="C164" s="8">
+        <v>158</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
@@ -3681,12 +3690,18 @@
       <c r="B165" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="C165" s="8">
+        <v>159</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="8">
         <v>160</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0C0C3-ADF8-4DF5-9C14-9E33A610187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34D68E-D58D-465E-B169-18105F3A9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3717,6 +3717,9 @@
       <c r="B168" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="C168" s="8">
+        <v>161</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
@@ -3725,6 +3728,9 @@
       <c r="B169" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C169" s="8">
+        <v>162</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
@@ -3733,6 +3739,9 @@
       <c r="B170" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="C170" s="8">
+        <v>163</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
@@ -3741,6 +3750,9 @@
       <c r="B171" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="C171" s="8">
+        <v>164</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
@@ -3748,6 +3760,9 @@
       </c>
       <c r="B172" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="C172" s="8">
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34D68E-D58D-465E-B169-18105F3A9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A555C5E-7C91-4813-9A7D-2E4D470622BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3772,6 +3772,9 @@
       <c r="B173" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C173" s="8">
+        <v>166</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
@@ -3780,6 +3783,9 @@
       <c r="B174" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="C174" s="8">
+        <v>167</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
@@ -3788,6 +3794,9 @@
       <c r="B175" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="C175" s="8">
+        <v>168</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
@@ -3796,16 +3805,22 @@
       <c r="B176" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>161</v>
       </c>
@@ -3813,7 +3828,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>161</v>
       </c>
@@ -3821,7 +3836,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>161</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>161</v>
       </c>
@@ -3837,7 +3852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>161</v>
       </c>
@@ -3845,7 +3860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>161</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>161</v>
       </c>
@@ -3861,7 +3876,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>161</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>161</v>
       </c>
@@ -3877,7 +3892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>161</v>
       </c>
@@ -3885,7 +3900,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>161</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>161</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>161</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>161</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>161</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A555C5E-7C91-4813-9A7D-2E4D470622BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD77C3-289A-48B9-8B9A-A63569D58DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3827,6 +3827,9 @@
       <c r="B178" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="C178" s="8">
+        <v>171</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
@@ -3835,6 +3838,9 @@
       <c r="B179" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C179" s="8">
+        <v>172</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
@@ -3843,6 +3849,9 @@
       <c r="B180" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="C180" s="8">
+        <v>173</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
@@ -3851,6 +3860,9 @@
       <c r="B181" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="C181" s="8">
+        <v>174</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
@@ -3859,6 +3871,9 @@
       <c r="B182" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="C182" s="8">
+        <v>175</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
@@ -3867,6 +3882,7 @@
       <c r="B183" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD77C3-289A-48B9-8B9A-A63569D58DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94A943-202E-41C3-AE10-B2768ABB765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3882,7 +3882,9 @@
       <c r="B183" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C183" s="8"/>
+      <c r="C183" s="8">
+        <v>176</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
@@ -3891,6 +3893,9 @@
       <c r="B184" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="C184" s="8">
+        <v>177</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
@@ -3899,6 +3904,9 @@
       <c r="B185" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C185" s="8">
+        <v>178</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
@@ -3907,6 +3915,9 @@
       <c r="B186" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="C186" s="8">
+        <v>179</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
@@ -3914,6 +3925,9 @@
       </c>
       <c r="B187" s="4" t="s">
         <v>181</v>
+      </c>
+      <c r="C187" s="8">
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94A943-202E-41C3-AE10-B2768ABB765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF180C74-C98B-42AA-8473-224C64112858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3937,6 +3937,9 @@
       <c r="B188" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C188" s="8">
+        <v>181</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
@@ -3945,6 +3948,9 @@
       <c r="B189" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="C189" s="8">
+        <v>182</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
@@ -3953,6 +3959,9 @@
       <c r="B190" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="C190" s="8">
+        <v>183</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
@@ -3961,6 +3970,9 @@
       <c r="B191" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="C191" s="8">
+        <v>184</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
@@ -3968,6 +3980,9 @@
       </c>
       <c r="B192" s="4" t="s">
         <v>186</v>
+      </c>
+      <c r="C192" s="8">
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF180C74-C98B-42AA-8473-224C64112858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F05B4-4C9C-4849-9866-1DF929F9A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3992,6 +3992,9 @@
       <c r="B193" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="C193" s="8">
+        <v>186</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
@@ -4000,6 +4003,9 @@
       <c r="B194" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="C194" s="8">
+        <v>187</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
@@ -4008,6 +4014,9 @@
       <c r="B195" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="C195" s="8">
+        <v>188</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
@@ -4016,6 +4025,9 @@
       <c r="B196" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="C196" s="8">
+        <v>189</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
@@ -4023,6 +4035,9 @@
       </c>
       <c r="B197" s="4" t="s">
         <v>191</v>
+      </c>
+      <c r="C197" s="8">
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F05B4-4C9C-4849-9866-1DF929F9A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B0584-38F8-4D10-8ECF-133E1E31BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4047,6 +4047,9 @@
       <c r="B198" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="C198" s="8">
+        <v>191</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
@@ -4055,6 +4058,9 @@
       <c r="B199" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="C199" s="8">
+        <v>192</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
@@ -4063,6 +4069,9 @@
       <c r="B200" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="C200" s="8">
+        <v>193</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
@@ -4071,6 +4080,9 @@
       <c r="B201" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="C201" s="8">
+        <v>194</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
@@ -4078,6 +4090,9 @@
       </c>
       <c r="B202" s="4" t="s">
         <v>196</v>
+      </c>
+      <c r="C202" s="8">
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B0584-38F8-4D10-8ECF-133E1E31BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2108-5701-4ADC-AF80-A389C9F51E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4105,6 +4105,9 @@
       <c r="B204" s="4" t="s">
         <v>451</v>
       </c>
+      <c r="C204" s="8">
+        <v>196</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
@@ -4113,6 +4116,9 @@
       <c r="B205" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="C205" s="8">
+        <v>197</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
@@ -4121,6 +4127,9 @@
       <c r="B206" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C206" s="8">
+        <v>198</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
@@ -4129,6 +4138,9 @@
       <c r="B207" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="C207" s="8">
+        <v>199</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
@@ -4137,16 +4149,20 @@
       <c r="B208" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C208" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>197</v>
       </c>
@@ -4154,7 +4170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>197</v>
       </c>
@@ -4162,7 +4178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>197</v>
       </c>
@@ -4170,7 +4186,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>197</v>
       </c>
@@ -4178,7 +4194,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>197</v>
       </c>
@@ -4186,7 +4202,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>197</v>
       </c>
@@ -4194,7 +4210,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>197</v>
       </c>
@@ -4202,7 +4218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>197</v>
       </c>
@@ -4210,7 +4226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>197</v>
       </c>
@@ -4218,7 +4234,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>197</v>
       </c>
@@ -4226,7 +4242,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>197</v>
       </c>
@@ -4234,7 +4250,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>197</v>
       </c>
@@ -4242,7 +4258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>197</v>
       </c>
@@ -4250,7 +4266,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>197</v>
       </c>
@@ -4258,7 +4274,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>197</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2108-5701-4ADC-AF80-A389C9F51E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1ADD75-BA2E-4536-9A08-9C1EEFCD9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4160,7 +4160,9 @@
       <c r="B209" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C209" s="8"/>
+      <c r="C209" s="8">
+        <v>201</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
@@ -4169,6 +4171,9 @@
       <c r="B210" s="5" t="s">
         <v>203</v>
       </c>
+      <c r="C210" s="8">
+        <v>202</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
@@ -4177,6 +4182,9 @@
       <c r="B211" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="C211" s="8">
+        <v>203</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
@@ -4185,6 +4193,9 @@
       <c r="B212" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="C212" s="8">
+        <v>204</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
@@ -4193,6 +4204,9 @@
       <c r="B213" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="C213" s="8">
+        <v>205</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
@@ -4201,6 +4215,7 @@
       <c r="B214" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="C214" s="8"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1ADD75-BA2E-4536-9A08-9C1EEFCD9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D30939-3932-42B4-883F-637F0D8CBC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4215,7 +4215,9 @@
       <c r="B214" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C214" s="8"/>
+      <c r="C214" s="8">
+        <v>206</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
@@ -4224,6 +4226,9 @@
       <c r="B215" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="C215" s="8">
+        <v>207</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
@@ -4232,6 +4237,9 @@
       <c r="B216" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="C216" s="8">
+        <v>208</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
@@ -4240,6 +4248,9 @@
       <c r="B217" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="C217" s="8">
+        <v>209</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
@@ -4247,6 +4258,9 @@
       </c>
       <c r="B218" s="4" t="s">
         <v>211</v>
+      </c>
+      <c r="C218" s="8">
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D30939-3932-42B4-883F-637F0D8CBC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD913A6-52F5-4B3D-92F6-7500F9D8C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4270,6 +4270,9 @@
       <c r="B219" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="C219" s="8">
+        <v>211</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
@@ -4278,6 +4281,9 @@
       <c r="B220" s="4" t="s">
         <v>213</v>
       </c>
+      <c r="C220" s="8">
+        <v>212</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
@@ -4286,6 +4292,9 @@
       <c r="B221" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="C221" s="8">
+        <v>213</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
@@ -4294,6 +4303,9 @@
       <c r="B222" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="C222" s="8">
+        <v>214</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
@@ -4301,6 +4313,9 @@
       </c>
       <c r="B223" s="4" t="s">
         <v>216</v>
+      </c>
+      <c r="C223" s="8">
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD913A6-52F5-4B3D-92F6-7500F9D8C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE60E33-4033-4F39-8A2A-99C4D4DC340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4325,6 +4325,9 @@
       <c r="B224" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="C224" s="8">
+        <v>216</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
@@ -4333,9 +4336,12 @@
       <c r="B225" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="C225" s="8">
+        <v>217</v>
+      </c>
     </row>
     <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C226"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
@@ -4344,6 +4350,9 @@
       <c r="B227" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="C227" s="8">
+        <v>218</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
@@ -4352,6 +4361,9 @@
       <c r="B228" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="C228" s="8">
+        <v>219</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
@@ -4359,6 +4371,9 @@
       </c>
       <c r="B229" s="4" t="s">
         <v>222</v>
+      </c>
+      <c r="C229" s="8">
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE60E33-4033-4F39-8A2A-99C4D4DC340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD771BD5-93E2-4962-BF56-349177024590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,6 +1500,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1553,7 +1561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1580,6 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -1899,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4383,6 +4392,9 @@
       <c r="B230" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="C230" s="8">
+        <v>221</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
@@ -4391,13 +4403,19 @@
       <c r="B231" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="C231" s="8">
+        <v>222</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="12" t="s">
         <v>225</v>
+      </c>
+      <c r="C232" s="8">
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -4407,6 +4425,9 @@
       <c r="B233" s="4" t="s">
         <v>226</v>
       </c>
+      <c r="C233" s="8">
+        <v>224</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
@@ -4414,6 +4435,9 @@
       </c>
       <c r="B234" s="4" t="s">
         <v>227</v>
+      </c>
+      <c r="C234" s="8">
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD771BD5-93E2-4962-BF56-349177024590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7576E-389A-422E-B81E-F79189F6229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4447,6 +4447,9 @@
       <c r="B235" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="C235" s="8">
+        <v>226</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
@@ -4455,6 +4458,9 @@
       <c r="B236" s="4" t="s">
         <v>229</v>
       </c>
+      <c r="C236" s="8">
+        <v>227</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
@@ -4463,6 +4469,9 @@
       <c r="B237" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="C237" s="8">
+        <v>228</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
@@ -4471,13 +4480,19 @@
       <c r="B238" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="C238" s="8">
+        <v>229</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="12" t="s">
         <v>232</v>
+      </c>
+      <c r="C239" s="8">
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7576E-389A-422E-B81E-F79189F6229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4219CD-E3A5-416F-89DC-4165CAC23DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4502,40 +4502,55 @@
       <c r="B240" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C240" s="8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C241" s="8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C242" s="8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C243" s="8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C244" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>219</v>
       </c>
@@ -4543,7 +4558,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>219</v>
       </c>
@@ -4551,7 +4566,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>219</v>
       </c>
@@ -4559,7 +4574,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>219</v>
       </c>
@@ -4567,7 +4582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>219</v>
       </c>
@@ -4575,7 +4590,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>219</v>
       </c>
@@ -4583,7 +4598,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>219</v>
       </c>
@@ -4591,7 +4606,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>219</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>219</v>
       </c>
@@ -4607,7 +4622,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>219</v>
       </c>
@@ -4615,7 +4630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>219</v>
       </c>
@@ -4623,7 +4638,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>219</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4219CD-E3A5-416F-89DC-4165CAC23DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676D118-3667-438D-867F-AFF02DA8648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4557,6 +4557,9 @@
       <c r="B245" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="C245" s="8">
+        <v>236</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
@@ -4565,6 +4568,9 @@
       <c r="B246" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="C246" s="8">
+        <v>237</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
@@ -4573,6 +4579,9 @@
       <c r="B247" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="C247" s="8">
+        <v>238</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
@@ -4581,6 +4590,9 @@
       <c r="B248" s="4" t="s">
         <v>241</v>
       </c>
+      <c r="C248" s="8">
+        <v>239</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
@@ -4588,6 +4600,9 @@
       </c>
       <c r="B249" s="4" t="s">
         <v>242</v>
+      </c>
+      <c r="C249" s="8">
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676D118-3667-438D-867F-AFF02DA8648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569F494-005C-42EC-B501-1F7B9E3CBCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4612,6 +4612,9 @@
       <c r="B250" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="C250" s="8">
+        <v>241</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
@@ -4620,6 +4623,9 @@
       <c r="B251" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="C251" s="8">
+        <v>242</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
@@ -4628,6 +4634,9 @@
       <c r="B252" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="C252" s="8">
+        <v>243</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
@@ -4636,6 +4645,9 @@
       <c r="B253" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="C253" s="8">
+        <v>244</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
@@ -4643,6 +4655,9 @@
       </c>
       <c r="B254" s="4" t="s">
         <v>247</v>
+      </c>
+      <c r="C254" s="8">
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569F494-005C-42EC-B501-1F7B9E3CBCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6BE3F-CA2A-437D-9671-F449E3596023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4667,6 +4667,9 @@
       <c r="B255" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="C255" s="8">
+        <v>246</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
@@ -4675,6 +4678,9 @@
       <c r="B256" s="4" t="s">
         <v>249</v>
       </c>
+      <c r="C256" s="8">
+        <v>247</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
@@ -4683,6 +4689,9 @@
       <c r="B257" s="4" t="s">
         <v>250</v>
       </c>
+      <c r="C257" s="8">
+        <v>248</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
@@ -4691,6 +4700,9 @@
       <c r="B258" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="C258" s="8">
+        <v>249</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
@@ -4698,6 +4710,9 @@
       </c>
       <c r="B259" s="4" t="s">
         <v>252</v>
+      </c>
+      <c r="C259" s="8">
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6BE3F-CA2A-437D-9671-F449E3596023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084A128-CEFC-4B11-A77E-7CA835C4E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4722,6 +4722,9 @@
       <c r="B260" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="C260" s="8">
+        <v>251</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
@@ -4730,6 +4733,9 @@
       <c r="B261" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="C261" s="8">
+        <v>252</v>
+      </c>
     </row>
     <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C262"/>
@@ -4741,6 +4747,9 @@
       <c r="B263" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C263" s="8">
+        <v>253</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
@@ -4749,6 +4758,9 @@
       <c r="B264" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="C264" s="8">
+        <v>254</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
@@ -4756,6 +4768,9 @@
       </c>
       <c r="B265" s="4" t="s">
         <v>257</v>
+      </c>
+      <c r="C265" s="8">
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084A128-CEFC-4B11-A77E-7CA835C4E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE2784-1D17-456B-BA77-D069B2ECB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4780,6 +4780,9 @@
       <c r="B266" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="C266" s="8">
+        <v>256</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
@@ -4788,6 +4791,9 @@
       <c r="B267" s="4" t="s">
         <v>259</v>
       </c>
+      <c r="C267" s="8">
+        <v>257</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
@@ -4796,6 +4802,9 @@
       <c r="B268" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="C268" s="8">
+        <v>258</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
@@ -4804,6 +4813,9 @@
       <c r="B269" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="C269" s="8">
+        <v>259</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
@@ -4811,6 +4823,9 @@
       </c>
       <c r="B270" s="4" t="s">
         <v>262</v>
+      </c>
+      <c r="C270" s="8">
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE2784-1D17-456B-BA77-D069B2ECB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD70732-3C2C-416F-914D-34A5E927FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4835,6 +4835,9 @@
       <c r="B271" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="C271" s="8">
+        <v>261</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
@@ -4843,6 +4846,9 @@
       <c r="B272" s="4" t="s">
         <v>264</v>
       </c>
+      <c r="C272" s="8">
+        <v>262</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
@@ -4851,6 +4857,9 @@
       <c r="B273" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="C273" s="8">
+        <v>263</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
@@ -4859,6 +4868,9 @@
       <c r="B274" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="C274" s="8">
+        <v>264</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
@@ -4866,6 +4878,9 @@
       </c>
       <c r="B275" s="4" t="s">
         <v>267</v>
+      </c>
+      <c r="C275" s="8">
+        <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD70732-3C2C-416F-914D-34A5E927FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BD9D3-5798-4C05-B8B1-8B4A72522A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4890,6 +4890,9 @@
       <c r="B276" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="C276" s="8">
+        <v>266</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
@@ -4898,6 +4901,9 @@
       <c r="B277" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="C277" s="8">
+        <v>267</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
@@ -4906,6 +4912,9 @@
       <c r="B278" s="4" t="s">
         <v>270</v>
       </c>
+      <c r="C278" s="8">
+        <v>268</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
@@ -4914,6 +4923,9 @@
       <c r="B279" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="C279" s="8">
+        <v>269</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
@@ -4921,6 +4933,9 @@
       </c>
       <c r="B280" s="4" t="s">
         <v>272</v>
+      </c>
+      <c r="C280" s="8">
+        <v>270</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BD9D3-5798-4C05-B8B1-8B4A72522A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25054536-921B-46A0-94D3-FFD9916A7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4945,9 +4945,12 @@
       <c r="B281" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="C281" s="8">
+        <v>271</v>
+      </c>
     </row>
     <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C282"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
@@ -4956,6 +4959,9 @@
       <c r="B283" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="C283" s="8">
+        <v>272</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
@@ -4964,6 +4970,9 @@
       <c r="B284" s="4" t="s">
         <v>276</v>
       </c>
+      <c r="C284" s="8">
+        <v>273</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
@@ -4972,6 +4981,9 @@
       <c r="B285" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="C285" s="8">
+        <v>274</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
@@ -4979,6 +4991,9 @@
       </c>
       <c r="B286" s="4" t="s">
         <v>278</v>
+      </c>
+      <c r="C286" s="8">
+        <v>275</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25054536-921B-46A0-94D3-FFD9916A7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA6DB9-1B8D-4C82-95FE-A57FD65D0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5003,6 +5003,9 @@
       <c r="B287" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="C287" s="8">
+        <v>276</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
@@ -5011,32 +5014,44 @@
       <c r="B288" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C288" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C289" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C290" s="8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C291" s="8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>274</v>
       </c>
@@ -5044,7 +5059,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>274</v>
       </c>
@@ -5052,7 +5067,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>274</v>
       </c>
@@ -5060,7 +5075,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>274</v>
       </c>
@@ -5068,7 +5083,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>274</v>
       </c>
@@ -5076,7 +5091,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>274</v>
       </c>
@@ -5084,7 +5099,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>274</v>
       </c>
@@ -5092,7 +5107,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>274</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>274</v>
       </c>
@@ -5108,7 +5123,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>274</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>274</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>274</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>274</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA6DB9-1B8D-4C82-95FE-A57FD65D0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC607F1-9A11-4AE0-BEE3-EE663632687A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5058,6 +5058,9 @@
       <c r="B292" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="C292" s="8">
+        <v>281</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
@@ -5066,6 +5069,9 @@
       <c r="B293" s="4" t="s">
         <v>285</v>
       </c>
+      <c r="C293" s="8">
+        <v>282</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
@@ -5074,6 +5080,9 @@
       <c r="B294" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="C294" s="8">
+        <v>283</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
@@ -5082,6 +5091,9 @@
       <c r="B295" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="C295" s="8">
+        <v>284</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
@@ -5089,6 +5101,9 @@
       </c>
       <c r="B296" s="5" t="s">
         <v>288</v>
+      </c>
+      <c r="C296" s="8">
+        <v>285</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC607F1-9A11-4AE0-BEE3-EE663632687A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2A60E-B0CE-4FB2-BF2A-2F70F3C317C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5113,6 +5113,9 @@
       <c r="B297" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="C297" s="8">
+        <v>286</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
@@ -5121,6 +5124,9 @@
       <c r="B298" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="C298" s="8">
+        <v>287</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
@@ -5129,6 +5135,9 @@
       <c r="B299" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="C299" s="8">
+        <v>288</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
@@ -5137,6 +5146,9 @@
       <c r="B300" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="C300" s="8">
+        <v>289</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
@@ -5144,6 +5156,9 @@
       </c>
       <c r="B301" s="4" t="s">
         <v>293</v>
+      </c>
+      <c r="C301" s="8">
+        <v>290</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2A60E-B0CE-4FB2-BF2A-2F70F3C317C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A318659-95A2-465B-9F9B-A8797DF1FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5168,6 +5168,9 @@
       <c r="B302" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="C302" s="8">
+        <v>291</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
@@ -5176,6 +5179,9 @@
       <c r="B303" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="C303" s="8">
+        <v>292</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
@@ -5184,24 +5190,33 @@
       <c r="B304" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C304" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C305" s="8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C306" s="8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>274</v>
       </c>
@@ -5209,7 +5224,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>274</v>
       </c>
@@ -5217,7 +5232,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>274</v>
       </c>
@@ -5225,7 +5240,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>274</v>
       </c>
@@ -5233,7 +5248,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>274</v>
       </c>
@@ -5241,7 +5256,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>274</v>
       </c>
@@ -5249,7 +5264,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>274</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>274</v>
       </c>
@@ -5265,7 +5280,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>274</v>
       </c>
@@ -5273,7 +5288,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>274</v>
       </c>
@@ -5281,7 +5296,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>274</v>
       </c>
@@ -5289,7 +5304,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>274</v>
       </c>
@@ -5297,7 +5312,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>274</v>
       </c>
@@ -5305,7 +5320,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>274</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A318659-95A2-465B-9F9B-A8797DF1FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F1E8B-B221-40A7-A6F9-E795E6857B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5223,6 +5223,9 @@
       <c r="B307" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="C307" s="8">
+        <v>296</v>
+      </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
@@ -5231,6 +5234,9 @@
       <c r="B308" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="C308" s="8">
+        <v>297</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
@@ -5239,6 +5245,9 @@
       <c r="B309" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="C309" s="8">
+        <v>298</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
@@ -5247,6 +5256,9 @@
       <c r="B310" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="C310" s="8">
+        <v>299</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
@@ -5254,6 +5266,9 @@
       </c>
       <c r="B311" s="4" t="s">
         <v>303</v>
+      </c>
+      <c r="C311" s="8">
+        <v>300</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F1E8B-B221-40A7-A6F9-E795E6857B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAB719-8A86-4AE2-AF19-3B0D4D4FED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+      <selection activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5278,6 +5278,9 @@
       <c r="B312" s="4" t="s">
         <v>304</v>
       </c>
+      <c r="C312" s="8">
+        <v>301</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
@@ -5286,6 +5289,9 @@
       <c r="B313" s="4" t="s">
         <v>305</v>
       </c>
+      <c r="C313" s="8">
+        <v>302</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
@@ -5294,6 +5300,9 @@
       <c r="B314" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="C314" s="8">
+        <v>303</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
@@ -5302,6 +5311,9 @@
       <c r="B315" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="C315" s="8">
+        <v>304</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
@@ -5309,6 +5321,9 @@
       </c>
       <c r="B316" s="4" t="s">
         <v>308</v>
+      </c>
+      <c r="C316" s="8">
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAB719-8A86-4AE2-AF19-3B0D4D4FED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDD400-2FE2-46D8-9F88-5BB9554A92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5333,6 +5333,9 @@
       <c r="B317" s="4" t="s">
         <v>309</v>
       </c>
+      <c r="C317" s="8">
+        <v>306</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
@@ -5341,6 +5344,9 @@
       <c r="B318" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="C318" s="8">
+        <v>307</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
@@ -5349,6 +5355,9 @@
       <c r="B319" s="4" t="s">
         <v>311</v>
       </c>
+      <c r="C319" s="8">
+        <v>308</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
@@ -5357,6 +5366,9 @@
       <c r="B320" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="C320" s="8">
+        <v>309</v>
+      </c>
     </row>
     <row r="321" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C321"/>
@@ -5367,6 +5379,9 @@
       </c>
       <c r="B322" s="4" t="s">
         <v>314</v>
+      </c>
+      <c r="C322" s="8">
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDD400-2FE2-46D8-9F88-5BB9554A92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D60E41-C958-4D7A-AE5D-AE4D248C418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5391,6 +5391,9 @@
       <c r="B323" s="4" t="s">
         <v>315</v>
       </c>
+      <c r="C323" s="8">
+        <v>311</v>
+      </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
@@ -5399,6 +5402,9 @@
       <c r="B324" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="C324" s="8">
+        <v>312</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
@@ -5407,6 +5413,9 @@
       <c r="B325" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="C325" s="8">
+        <v>313</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
@@ -5415,6 +5424,9 @@
       <c r="B326" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="C326" s="8">
+        <v>314</v>
+      </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
@@ -5422,6 +5434,9 @@
       </c>
       <c r="B327" s="4" t="s">
         <v>319</v>
+      </c>
+      <c r="C327" s="8">
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D60E41-C958-4D7A-AE5D-AE4D248C418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BA4E5-570D-4C9F-B0E0-2FD83B383A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5446,6 +5446,9 @@
       <c r="B328" s="4" t="s">
         <v>320</v>
       </c>
+      <c r="C328" s="8">
+        <v>316</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
@@ -5454,6 +5457,9 @@
       <c r="B329" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="C329" s="8">
+        <v>317</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
@@ -5462,6 +5468,9 @@
       <c r="B330" s="5" t="s">
         <v>322</v>
       </c>
+      <c r="C330" s="8">
+        <v>318</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
@@ -5470,6 +5479,9 @@
       <c r="B331" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="C331" s="8">
+        <v>319</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
@@ -5477,6 +5489,9 @@
       </c>
       <c r="B332" s="4" t="s">
         <v>324</v>
+      </c>
+      <c r="C332" s="8">
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BA4E5-570D-4C9F-B0E0-2FD83B383A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450CD70A-DD12-4261-A647-1F726848E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5501,6 +5501,9 @@
       <c r="B333" s="4" t="s">
         <v>325</v>
       </c>
+      <c r="C333" s="8">
+        <v>321</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
@@ -5509,6 +5512,9 @@
       <c r="B334" s="4" t="s">
         <v>326</v>
       </c>
+      <c r="C334" s="8">
+        <v>322</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
@@ -5517,6 +5523,9 @@
       <c r="B335" s="4" t="s">
         <v>327</v>
       </c>
+      <c r="C335" s="8">
+        <v>323</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
@@ -5525,6 +5534,9 @@
       <c r="B336" s="4" t="s">
         <v>328</v>
       </c>
+      <c r="C336" s="8">
+        <v>324</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
@@ -5532,6 +5544,9 @@
       </c>
       <c r="B337" s="4" t="s">
         <v>329</v>
+      </c>
+      <c r="C337" s="8">
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450CD70A-DD12-4261-A647-1F726848E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD9187-9533-473D-AFE4-1AD54D3E8E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5556,6 +5556,9 @@
       <c r="B338" s="4" t="s">
         <v>330</v>
       </c>
+      <c r="C338" s="8">
+        <v>326</v>
+      </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
@@ -5564,6 +5567,9 @@
       <c r="B339" s="4" t="s">
         <v>331</v>
       </c>
+      <c r="C339" s="8">
+        <v>327</v>
+      </c>
     </row>
     <row r="340" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C340"/>
@@ -5575,6 +5581,9 @@
       <c r="B341" s="4" t="s">
         <v>333</v>
       </c>
+      <c r="C341" s="8">
+        <v>328</v>
+      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
@@ -5583,6 +5592,9 @@
       <c r="B342" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="C342" s="8">
+        <v>329</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
@@ -5590,6 +5602,9 @@
       </c>
       <c r="B343" s="4" t="s">
         <v>335</v>
+      </c>
+      <c r="C343" s="8">
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD9187-9533-473D-AFE4-1AD54D3E8E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07488A-57EA-4A6A-9F0A-FD69C5056BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5614,6 +5614,9 @@
       <c r="B344" s="4" t="s">
         <v>336</v>
       </c>
+      <c r="C344" s="8">
+        <v>331</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
@@ -5622,6 +5625,9 @@
       <c r="B345" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="C345" s="8">
+        <v>332</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
@@ -5630,6 +5636,9 @@
       <c r="B346" s="4" t="s">
         <v>338</v>
       </c>
+      <c r="C346" s="8">
+        <v>333</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
@@ -5638,6 +5647,9 @@
       <c r="B347" s="4" t="s">
         <v>339</v>
       </c>
+      <c r="C347" s="8">
+        <v>334</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
@@ -5645,6 +5657,9 @@
       </c>
       <c r="B348" s="4" t="s">
         <v>340</v>
+      </c>
+      <c r="C348" s="8">
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07488A-57EA-4A6A-9F0A-FD69C5056BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11522F5-FCE2-4FF5-A9EF-E7B91F8E02D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5669,6 +5669,9 @@
       <c r="B349" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="C349" s="8">
+        <v>336</v>
+      </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
@@ -5677,6 +5680,9 @@
       <c r="B350" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="C350" s="8">
+        <v>337</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
@@ -5685,6 +5691,9 @@
       <c r="B351" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="C351" s="8">
+        <v>338</v>
+      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
@@ -5693,16 +5702,22 @@
       <c r="B352" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C352" s="8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C353" s="8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>332</v>
       </c>
@@ -5710,7 +5725,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>332</v>
       </c>
@@ -5718,7 +5733,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>332</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>332</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>332</v>
       </c>
@@ -5742,7 +5757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>332</v>
       </c>
@@ -5750,7 +5765,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>332</v>
       </c>
@@ -5758,7 +5773,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>332</v>
       </c>
@@ -5766,7 +5781,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>332</v>
       </c>
@@ -5774,7 +5789,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>332</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>332</v>
       </c>
@@ -5790,7 +5805,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>332</v>
       </c>
@@ -5798,7 +5813,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>332</v>
       </c>
@@ -5806,7 +5821,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>332</v>
       </c>
@@ -5814,7 +5829,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>332</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11522F5-FCE2-4FF5-A9EF-E7B91F8E02D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3732497-F2A9-4079-A2DA-365C6302DED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5724,6 +5724,9 @@
       <c r="B354" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="C354" s="8">
+        <v>341</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
@@ -5732,6 +5735,9 @@
       <c r="B355" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="C355" s="8">
+        <v>342</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
@@ -5740,6 +5746,9 @@
       <c r="B356" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="C356" s="8">
+        <v>343</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
@@ -5748,6 +5757,9 @@
       <c r="B357" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="C357" s="8">
+        <v>344</v>
+      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
@@ -5755,6 +5767,9 @@
       </c>
       <c r="B358" s="4" t="s">
         <v>350</v>
+      </c>
+      <c r="C358" s="8">
+        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3732497-F2A9-4079-A2DA-365C6302DED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E650E-3C77-4524-A8EF-51D403872C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5779,6 +5779,9 @@
       <c r="B359" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="C359" s="8">
+        <v>346</v>
+      </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
@@ -5787,6 +5790,9 @@
       <c r="B360" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="C360" s="8">
+        <v>347</v>
+      </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
@@ -5795,6 +5801,9 @@
       <c r="B361" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="C361" s="8">
+        <v>348</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
@@ -5803,6 +5812,9 @@
       <c r="B362" s="4" t="s">
         <v>354</v>
       </c>
+      <c r="C362" s="8">
+        <v>349</v>
+      </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
@@ -5810,6 +5822,9 @@
       </c>
       <c r="B363" s="4" t="s">
         <v>355</v>
+      </c>
+      <c r="C363" s="8">
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E650E-3C77-4524-A8EF-51D403872C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8F53E-423F-4816-B9DF-E58D722557DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5834,6 +5834,9 @@
       <c r="B364" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="C364" s="8">
+        <v>351</v>
+      </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
@@ -5842,6 +5845,9 @@
       <c r="B365" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="C365" s="8">
+        <v>352</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
@@ -5850,6 +5856,9 @@
       <c r="B366" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="C366" s="8">
+        <v>353</v>
+      </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
@@ -5858,6 +5867,9 @@
       <c r="B367" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="C367" s="8">
+        <v>354</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
@@ -5865,6 +5877,9 @@
       </c>
       <c r="B368" s="4" t="s">
         <v>360</v>
+      </c>
+      <c r="C368" s="8">
+        <v>355</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8F53E-423F-4816-B9DF-E58D722557DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6492F4-3583-488D-B5AB-8AC72563B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B368" sqref="B368"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5889,6 +5889,9 @@
       <c r="B369" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C369" s="8">
+        <v>356</v>
+      </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
@@ -5897,6 +5900,9 @@
       <c r="B370" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="C370" s="8">
+        <v>357</v>
+      </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
@@ -5905,6 +5911,9 @@
       <c r="B371" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="C371" s="8">
+        <v>358</v>
+      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
@@ -5913,6 +5922,9 @@
       <c r="B372" s="4" t="s">
         <v>364</v>
       </c>
+      <c r="C372" s="8">
+        <v>359</v>
+      </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
@@ -5920,6 +5932,9 @@
       </c>
       <c r="B373" s="4" t="s">
         <v>365</v>
+      </c>
+      <c r="C373" s="8">
+        <v>360</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6492F4-3583-488D-B5AB-8AC72563B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261CBE5-5823-4818-904F-285C2496FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B373" sqref="B373"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5944,6 +5944,9 @@
       <c r="B374" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="C374" s="8">
+        <v>361</v>
+      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
@@ -5952,6 +5955,9 @@
       <c r="B375" s="4" t="s">
         <v>367</v>
       </c>
+      <c r="C375" s="8">
+        <v>362</v>
+      </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
@@ -5960,6 +5966,9 @@
       <c r="B376" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="C376" s="8">
+        <v>363</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
@@ -5968,6 +5977,9 @@
       <c r="B377" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="C377" s="8">
+        <v>364</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
@@ -5975,6 +5987,9 @@
       </c>
       <c r="B378" s="4" t="s">
         <v>370</v>
+      </c>
+      <c r="C378" s="8">
+        <v>365</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261CBE5-5823-4818-904F-285C2496FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A0614A-7570-4D71-A45C-DAEF2DA252DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B372" sqref="B372"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B384" sqref="B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5999,6 +5999,9 @@
       <c r="B379" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="C379" s="8">
+        <v>366</v>
+      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
@@ -6007,6 +6010,9 @@
       <c r="B380" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="C380" s="8">
+        <v>367</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
@@ -6015,6 +6021,9 @@
       <c r="B381" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="C381" s="8">
+        <v>368</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
@@ -6023,6 +6032,9 @@
       <c r="B382" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="C382" s="8">
+        <v>369</v>
+      </c>
     </row>
     <row r="383" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C383"/>
@@ -6033,6 +6045,9 @@
       </c>
       <c r="B384" s="4" t="s">
         <v>376</v>
+      </c>
+      <c r="C384" s="8">
+        <v>370</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A0614A-7570-4D71-A45C-DAEF2DA252DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128EFCA-48CC-4A27-B1CF-34D330008727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B384" sqref="B384"/>
+      <selection activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6057,6 +6057,9 @@
       <c r="B385" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="C385" s="8">
+        <v>371</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
@@ -6065,6 +6068,9 @@
       <c r="B386" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="C386" s="8">
+        <v>372</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
@@ -6073,6 +6079,9 @@
       <c r="B387" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C387" s="8">
+        <v>373</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
@@ -6081,6 +6090,9 @@
       <c r="B388" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="C388" s="8">
+        <v>374</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
@@ -6088,6 +6100,9 @@
       </c>
       <c r="B389" s="4" t="s">
         <v>380</v>
+      </c>
+      <c r="C389" s="8">
+        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128EFCA-48CC-4A27-B1CF-34D330008727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDAF65-15EA-4930-9B9D-FCABB1F4547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B389" sqref="B389"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6115,6 +6115,9 @@
       <c r="B391" s="4" t="s">
         <v>382</v>
       </c>
+      <c r="C391" s="8">
+        <v>376</v>
+      </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
@@ -6123,6 +6126,9 @@
       <c r="B392" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="C392" s="8">
+        <v>377</v>
+      </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
@@ -6131,6 +6137,9 @@
       <c r="B393" s="4" t="s">
         <v>384</v>
       </c>
+      <c r="C393" s="8">
+        <v>378</v>
+      </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
@@ -6139,6 +6148,9 @@
       <c r="B394" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="C394" s="8">
+        <v>379</v>
+      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
@@ -6147,6 +6159,9 @@
       <c r="B395" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="C395" s="8">
+        <v>380</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
@@ -6155,6 +6170,7 @@
       <c r="B396" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="C396" s="8"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDAF65-15EA-4930-9B9D-FCABB1F4547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DC9F1-EA5A-4538-93B0-24D72887E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6170,7 +6170,9 @@
       <c r="B396" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C396" s="8"/>
+      <c r="C396" s="8">
+        <v>381</v>
+      </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
@@ -6179,6 +6181,9 @@
       <c r="B397" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="C397" s="8">
+        <v>382</v>
+      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
@@ -6187,6 +6192,9 @@
       <c r="B398" s="4" t="s">
         <v>262</v>
       </c>
+      <c r="C398" s="8">
+        <v>383</v>
+      </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
@@ -6195,6 +6203,9 @@
       <c r="B399" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="C399" s="8">
+        <v>384</v>
+      </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
@@ -6202,6 +6213,9 @@
       </c>
       <c r="B400" s="4" t="s">
         <v>390</v>
+      </c>
+      <c r="C400" s="8">
+        <v>385</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DC9F1-EA5A-4538-93B0-24D72887E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4845021-EE12-4703-B43D-2B498B0D8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6218,47 +6218,62 @@
         <v>385</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C401" s="8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C402" s="8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C403" s="8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C404" s="8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C405" s="8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>381</v>
       </c>
@@ -6266,7 +6281,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>381</v>
       </c>
@@ -6274,7 +6289,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>381</v>
       </c>
@@ -6282,7 +6297,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>381</v>
       </c>
@@ -6290,7 +6305,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>381</v>
       </c>
@@ -6298,7 +6313,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>381</v>
       </c>
@@ -6306,7 +6321,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>381</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>381</v>
       </c>
@@ -6322,7 +6337,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>381</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>381</v>
       </c>
@@ -6338,7 +6353,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>381</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4845021-EE12-4703-B43D-2B498B0D8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6047F408-A944-46B5-A106-D6DB8A348700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+      <selection activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6280,6 +6280,9 @@
       <c r="B406" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="C406" s="8">
+        <v>391</v>
+      </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
@@ -6288,6 +6291,9 @@
       <c r="B407" s="4" t="s">
         <v>396</v>
       </c>
+      <c r="C407" s="8">
+        <v>392</v>
+      </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
@@ -6296,6 +6302,9 @@
       <c r="B408" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="C408" s="8">
+        <v>393</v>
+      </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
@@ -6304,6 +6313,9 @@
       <c r="B409" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="C409" s="8">
+        <v>394</v>
+      </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
@@ -6311,6 +6323,9 @@
       </c>
       <c r="B410" s="4" t="s">
         <v>399</v>
+      </c>
+      <c r="C410" s="8">
+        <v>395</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6047F408-A944-46B5-A106-D6DB8A348700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2870BE-9582-4212-BB1F-C8F469036956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403"/>
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6335,6 +6335,9 @@
       <c r="B411" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="C411" s="8">
+        <v>396</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
@@ -6343,6 +6346,9 @@
       <c r="B412" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="C412" s="8">
+        <v>397</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
@@ -6351,6 +6357,9 @@
       <c r="B413" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="C413" s="8">
+        <v>398</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
@@ -6359,6 +6368,9 @@
       <c r="B414" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="C414" s="8">
+        <v>399</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
@@ -6366,6 +6378,9 @@
       </c>
       <c r="B415" s="4" t="s">
         <v>404</v>
+      </c>
+      <c r="C415" s="8">
+        <v>400</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2870BE-9582-4212-BB1F-C8F469036956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E6818-8E97-4656-B089-FD1352F4B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6390,40 +6390,55 @@
       <c r="B416" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C416" s="8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C417" s="8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C418" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C419" s="8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C420" s="8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>381</v>
       </c>
@@ -6431,7 +6446,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>381</v>
       </c>
@@ -6439,7 +6454,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>381</v>
       </c>
@@ -6447,7 +6462,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>381</v>
       </c>
@@ -6455,7 +6470,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>381</v>
       </c>
@@ -6463,7 +6478,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>381</v>
       </c>
@@ -6471,7 +6486,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>381</v>
       </c>
@@ -6479,7 +6494,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>381</v>
       </c>
@@ -6487,7 +6502,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>381</v>
       </c>
@@ -6495,7 +6510,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>381</v>
       </c>
@@ -6503,7 +6518,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>381</v>
       </c>
@@ -6511,7 +6526,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>381</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E6818-8E97-4656-B089-FD1352F4B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85770FA0-47F3-4331-92B4-3673E5294730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B420" sqref="B420"/>
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6445,6 +6445,9 @@
       <c r="B421" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="C421" s="8">
+        <v>406</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
@@ -6453,6 +6456,9 @@
       <c r="B422" s="4" t="s">
         <v>411</v>
       </c>
+      <c r="C422" s="8">
+        <v>407</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
@@ -6461,6 +6467,9 @@
       <c r="B423" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="C423" s="8">
+        <v>408</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
@@ -6469,6 +6478,9 @@
       <c r="B424" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="C424" s="8">
+        <v>409</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
@@ -6476,6 +6488,9 @@
       </c>
       <c r="B425" s="4" t="s">
         <v>414</v>
+      </c>
+      <c r="C425" s="8">
+        <v>410</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85770FA0-47F3-4331-92B4-3673E5294730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0400C-849C-4CEA-B5AF-EAEEA2DE2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B429" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6500,6 +6500,9 @@
       <c r="B426" s="4" t="s">
         <v>415</v>
       </c>
+      <c r="C426" s="8">
+        <v>411</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
@@ -6508,6 +6511,9 @@
       <c r="B427" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="C427" s="8">
+        <v>412</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
@@ -6516,6 +6522,9 @@
       <c r="B428" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="C428" s="8">
+        <v>413</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
@@ -6524,6 +6533,9 @@
       <c r="B429" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="C429" s="8">
+        <v>414</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
@@ -6531,6 +6543,9 @@
       </c>
       <c r="B430" s="4" t="s">
         <v>419</v>
+      </c>
+      <c r="C430" s="8">
+        <v>415</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0400C-849C-4CEA-B5AF-EAEEA2DE2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDC4D2-5E81-48A7-8AB2-3B3A97CB5D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1906,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B429" sqref="B429"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6555,6 +6555,9 @@
       <c r="B431" s="4" t="s">
         <v>420</v>
       </c>
+      <c r="C431" s="8">
+        <v>416</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
@@ -6563,32 +6566,44 @@
       <c r="B432" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C432" s="8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C433" s="8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C434" s="8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C435" s="8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>381</v>
       </c>
@@ -6596,7 +6611,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>381</v>
       </c>
@@ -6604,7 +6619,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>381</v>
       </c>
@@ -6612,7 +6627,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>381</v>
       </c>
@@ -6620,7 +6635,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>381</v>
       </c>
@@ -6628,7 +6643,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>381</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>381</v>
       </c>
@@ -6644,7 +6659,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>381</v>
       </c>
@@ -6652,7 +6667,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>381</v>
       </c>
@@ -6660,7 +6675,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>381</v>
       </c>
@@ -6668,7 +6683,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>381</v>
       </c>
@@ -6676,7 +6691,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>381</v>
       </c>
@@ -6684,7 +6699,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>381</v>
       </c>
@@ -6796,6 +6811,780 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C463"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C464"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C465"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C466"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C467"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C468"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C469"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C470"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C471"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C472"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C473"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C474"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C475"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C476"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C477"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C478"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C479"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C480"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C481"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C482"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C483"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C484"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C485"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C486"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C487"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C488"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C489"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C490"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C491"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C492"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C493"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C494"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C495"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C496"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C497"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C498"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C499"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C500"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C501"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C502"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C503"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C504"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C505"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C506"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C507"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C508"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C509"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C510"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C511"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C512"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C513"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C514"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C515"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C516"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C517"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C518"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C519"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C520"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C521"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C522"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C523"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C524"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C525"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C526"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C527"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C528"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C529"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C530"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C531"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C532"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C533"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C534"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C535"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C536"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C537"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C538"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C539"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C540"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C541"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C542"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C543"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C544"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C545"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C546"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C547"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C548"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C549"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C550"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C551"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C552"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C553"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C554"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C555"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C556"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C557"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C558"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C559"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C560"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C561"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C562"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C563"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C564"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C565"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C566"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C567"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C568"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C569"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C570"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C571"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C572"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C573"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C574"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C575"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C576"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C577"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C578"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C579"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C580"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C581"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C582"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C583"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C584"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C585"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C586"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C587"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C588"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C589"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C590"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C591"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C592"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C593"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C594"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C595"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C596"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C597"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C598"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C599"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C600"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C601"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C602"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C603"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C604"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C605"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C606"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C607"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C608"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C609"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C610"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C611"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C612"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C613"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C614"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C615"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C616"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C617"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C618"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C619"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C620"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C621"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C622"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C623"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C624"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C625"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C626"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C627"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C628"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C629"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C630"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C631"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C632"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C633"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C634"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C635"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C636"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C637"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C638"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C639"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C640"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C641"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C642"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C643"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C644"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C645"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C646"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C647"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C648"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C649"/>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C650"/>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C651"/>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C652"/>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C653"/>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C654"/>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C655"/>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C656"/>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C657"/>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C658"/>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C659"/>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C660"/>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C661"/>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C662"/>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C663"/>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C664"/>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C665"/>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C666"/>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C667"/>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C668"/>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C669"/>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C670"/>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C671"/>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C672"/>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C673"/>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C674"/>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C675"/>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C676"/>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C677"/>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C678"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C679"/>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C680"/>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C681"/>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C682"/>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C683"/>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C684"/>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C685"/>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C686"/>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C687"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C688"/>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C689"/>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C690"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C691"/>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C692"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C693"/>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C694"/>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C695"/>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C696"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C697"/>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C698"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C699"/>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C700"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C701"/>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C702"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C703"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C704"/>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C705"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C706"/>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C707"/>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C708"/>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C709"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C710"/>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C711"/>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C712"/>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C713"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C714"/>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C715"/>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C716"/>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C717"/>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C718"/>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C719"/>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C720"/>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C721"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDC4D2-5E81-48A7-8AB2-3B3A97CB5D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FC358-5283-4532-843F-2B87756B130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6610,6 +6610,9 @@
       <c r="B436" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="C436" s="8">
+        <v>421</v>
+      </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
@@ -6618,6 +6621,9 @@
       <c r="B437" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="C437" s="8">
+        <v>422</v>
+      </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
@@ -6626,6 +6632,9 @@
       <c r="B438" s="4" t="s">
         <v>427</v>
       </c>
+      <c r="C438" s="8">
+        <v>423</v>
+      </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
@@ -6634,6 +6643,9 @@
       <c r="B439" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="C439" s="8">
+        <v>424</v>
+      </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
@@ -6641,6 +6653,9 @@
       </c>
       <c r="B440" s="4" t="s">
         <v>429</v>
+      </c>
+      <c r="C440" s="8">
+        <v>425</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FC358-5283-4532-843F-2B87756B130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB54711-9B3E-427D-AADC-4AB06001F024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+      <selection activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6665,6 +6665,9 @@
       <c r="B441" s="4" t="s">
         <v>430</v>
       </c>
+      <c r="C441" s="8">
+        <v>426</v>
+      </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
@@ -6673,6 +6676,9 @@
       <c r="B442" s="4" t="s">
         <v>431</v>
       </c>
+      <c r="C442" s="8">
+        <v>427</v>
+      </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
@@ -6681,6 +6687,9 @@
       <c r="B443" s="4" t="s">
         <v>432</v>
       </c>
+      <c r="C443" s="8">
+        <v>428</v>
+      </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
@@ -6689,6 +6698,9 @@
       <c r="B444" s="4" t="s">
         <v>433</v>
       </c>
+      <c r="C444" s="8">
+        <v>429</v>
+      </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
@@ -6696,6 +6708,9 @@
       </c>
       <c r="B445" s="4" t="s">
         <v>434</v>
+      </c>
+      <c r="C445" s="8">
+        <v>430</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB54711-9B3E-427D-AADC-4AB06001F024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A89894-51BA-4EE7-8846-F8625121FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6720,6 +6720,9 @@
       <c r="B446" s="4" t="s">
         <v>435</v>
       </c>
+      <c r="C446" s="8">
+        <v>431</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
@@ -6728,6 +6731,9 @@
       <c r="B447" s="4" t="s">
         <v>436</v>
       </c>
+      <c r="C447" s="8">
+        <v>432</v>
+      </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
@@ -6736,6 +6742,9 @@
       <c r="B448" s="4" t="s">
         <v>437</v>
       </c>
+      <c r="C448" s="8">
+        <v>433</v>
+      </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
@@ -6744,6 +6753,9 @@
       <c r="B449" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="C449" s="8">
+        <v>434</v>
+      </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
@@ -6751,6 +6763,9 @@
       </c>
       <c r="B450" s="4" t="s">
         <v>439</v>
+      </c>
+      <c r="C450" s="8">
+        <v>435</v>
       </c>
     </row>
     <row r="451" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A89894-51BA-4EE7-8846-F8625121FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A15E7-6E25-4B4F-95D0-03791A70346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B450" sqref="B450"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6778,6 +6778,9 @@
       <c r="B452" s="4" t="s">
         <v>441</v>
       </c>
+      <c r="C452" s="8">
+        <v>436</v>
+      </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
@@ -6786,6 +6789,9 @@
       <c r="B453" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C453" s="8">
+        <v>437</v>
+      </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
@@ -6794,6 +6800,9 @@
       <c r="B454" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="C454" s="8">
+        <v>438</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
@@ -6802,6 +6811,9 @@
       <c r="B455" s="4" t="s">
         <v>444</v>
       </c>
+      <c r="C455" s="8">
+        <v>439</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
@@ -6810,6 +6822,9 @@
       <c r="B456" s="4" t="s">
         <v>445</v>
       </c>
+      <c r="C456" s="8">
+        <v>440</v>
+      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
@@ -6818,6 +6833,7 @@
       <c r="B457" s="4" t="s">
         <v>446</v>
       </c>
+      <c r="C457" s="8"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKAMPREET\Desktop\EXTRA\Problems-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A15E7-6E25-4B4F-95D0-03791A70346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FA5F2A-D447-4C92-A1B8-D9CBAE70180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456"/>
+      <selection activeCell="B461" sqref="B461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6833,7 +6833,9 @@
       <c r="B457" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C457" s="8"/>
+      <c r="C457" s="8">
+        <v>441</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
@@ -6842,6 +6844,9 @@
       <c r="B458" s="4" t="s">
         <v>447</v>
       </c>
+      <c r="C458" s="8">
+        <v>442</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
@@ -6850,6 +6855,9 @@
       <c r="B459" s="4" t="s">
         <v>448</v>
       </c>
+      <c r="C459" s="8">
+        <v>443</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
@@ -6858,6 +6866,9 @@
       <c r="B460" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="C460" s="8">
+        <v>444</v>
+      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
@@ -6865,6 +6876,9 @@
       </c>
       <c r="B461" s="4" t="s">
         <v>450</v>
+      </c>
+      <c r="C461" s="8">
+        <v>445</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
